--- a/files/week10_correlation.xlsx
+++ b/files/week10_correlation.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ksuemailprod-my.sharepoint.com/personal/cblam_ksu_edu/Documents/COE Data Analyst/EDCI 913 Inquiry I/Spring 2026/Data simulation/Lecture data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="11_B35981270C9F3F5129B69650EE442AF0710427CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1355735A-F2DB-534F-9694-756C958C38AA}"/>
+  <xr:revisionPtr revIDLastSave="602" documentId="11_B35981270C9F3F5129B69650EE442AF0710427CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA5F0143-13E2-6C45-A687-9D14D0F60464}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="60160" windowHeight="23100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covariance" sheetId="2" r:id="rId1"/>
     <sheet name="more data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">covariance!$B$5:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">covariance!$A$5:$H$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>X</t>
   </si>
@@ -158,31 +158,31 @@
     <t>F6*G6</t>
   </si>
   <si>
-    <t>A50</t>
-  </si>
-  <si>
     <t>J6/(J7-1)</t>
   </si>
   <si>
     <t>J8/(J10*J11)</t>
   </si>
   <si>
-    <t>AVERAGE(B6:B50)</t>
-  </si>
-  <si>
-    <t>AVERAGE(C6:C50)</t>
-  </si>
-  <si>
-    <t>SUM(H6:H50)</t>
-  </si>
-  <si>
-    <t>STDEV.S(B6:B50)</t>
-  </si>
-  <si>
-    <t>STDEV.S(C6:C50)</t>
-  </si>
-  <si>
-    <t>CORREL(B6:B50,C6:C50)</t>
+    <t>AVERAGE($B$6:$B$50)</t>
+  </si>
+  <si>
+    <t>AVERAGE($C$6:$C$50)</t>
+  </si>
+  <si>
+    <t>SUM($H$6:$H$50)</t>
+  </si>
+  <si>
+    <t>STDEV.S($B$6:$B$50)</t>
+  </si>
+  <si>
+    <t>STDEV.S($C$6:$C$50)</t>
+  </si>
+  <si>
+    <t>$A$50</t>
+  </si>
+  <si>
+    <t>CORREL($B$6:$B$50,$C$6:$C$50)</t>
   </si>
   <si>
     <r>
@@ -201,11 +201,14 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Type "=" in front of the formulas below to apply the calculation.</t>
+      <t xml:space="preserve"> Type the equal sign (=) at the beginning of each formula to apply the calculation.</t>
     </r>
   </si>
   <si>
-    <t>Pay attention to the column and the row used in the formulas. For example, B6:B50 is the cell range including all the values of X.</t>
+    <t>Make sure to use the correct column and row references in all formulas. For example, B6:B50 refers to the full range of X values.</t>
+  </si>
+  <si>
+    <t>The dollar sign ($) is used to lock cell references, such as $B$6:$B$50, so the formula does not change when it is copied from one cell to another.</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -241,6 +244,11 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -337,10 +345,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,18 +666,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF529A74-C61C-9447-8614-8BA1483613CF}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="11"/>
-    <col min="4" max="5" width="18.5" customWidth="1"/>
+    <col min="4" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="26.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="28.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -688,7 +692,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
+      <c r="A3" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
@@ -729,18 +735,18 @@
         <v>1</v>
       </c>
       <c r="B6" s="6">
-        <f>'more data'!A9</f>
-        <v>52.53</v>
+        <f>'more data'!A17</f>
+        <v>39.799999999999997</v>
       </c>
       <c r="C6" s="6">
-        <f>'more data'!B9</f>
-        <v>66.16</v>
+        <f>'more data'!B17</f>
+        <v>47.16</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>33</v>
@@ -755,7 +761,7 @@
         <v>22</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>23</v>
@@ -766,12 +772,12 @@
         <v>2</v>
       </c>
       <c r="B7" s="6">
-        <f>'more data'!A11</f>
-        <v>66.14</v>
+        <f>'more data'!A29</f>
+        <v>40.9</v>
       </c>
       <c r="C7" s="6">
-        <f>'more data'!B11</f>
-        <v>52.7</v>
+        <f>'more data'!B29</f>
+        <v>35.33</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -782,7 +788,7 @@
         <v>28</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>29</v>
@@ -793,12 +799,12 @@
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <f>'more data'!A6</f>
-        <v>49.94</v>
+        <f>'more data'!A46</f>
+        <v>46.49</v>
       </c>
       <c r="C8" s="6">
-        <f>'more data'!B6</f>
-        <v>59.7</v>
+        <f>'more data'!B46</f>
+        <v>41.83</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -809,7 +815,7 @@
         <v>16</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>24</v>
@@ -820,12 +826,12 @@
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <f>'more data'!A41</f>
-        <v>58.7</v>
+        <f>'more data'!A35</f>
+        <v>47.18</v>
       </c>
       <c r="C9" s="6">
-        <f>'more data'!B41</f>
-        <v>62.31</v>
+        <f>'more data'!B35</f>
+        <v>42.3</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -841,12 +847,12 @@
         <v>5</v>
       </c>
       <c r="B10" s="6">
-        <f>'more data'!A16</f>
-        <v>61.77</v>
+        <f>'more data'!A40</f>
+        <v>48.76</v>
       </c>
       <c r="C10" s="6">
-        <f>'more data'!B16</f>
-        <v>54.06</v>
+        <f>'more data'!B40</f>
+        <v>37.18</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -857,7 +863,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>30</v>
@@ -868,12 +874,12 @@
         <v>6</v>
       </c>
       <c r="B11" s="6">
-        <f>'more data'!A32</f>
-        <v>58.09</v>
+        <f>'more data'!A25</f>
+        <v>49.81</v>
       </c>
       <c r="C11" s="6">
-        <f>'more data'!B32</f>
-        <v>58.27</v>
+        <f>'more data'!B25</f>
+        <v>57</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -884,7 +890,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>30</v>
@@ -895,12 +901,12 @@
         <v>7</v>
       </c>
       <c r="B12" s="6">
-        <f>'more data'!A38</f>
-        <v>56.57</v>
+        <f>'more data'!A6</f>
+        <v>49.94</v>
       </c>
       <c r="C12" s="6">
-        <f>'more data'!B38</f>
-        <v>57.44</v>
+        <f>'more data'!B6</f>
+        <v>59.7</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -916,12 +922,12 @@
         <v>8</v>
       </c>
       <c r="B13" s="6">
-        <f>'more data'!A26</f>
-        <v>62.34</v>
+        <f>'more data'!A4</f>
+        <v>50.31</v>
       </c>
       <c r="C13" s="6">
-        <f>'more data'!B26</f>
-        <v>56.53</v>
+        <f>'more data'!B4</f>
+        <v>41.88</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -932,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>18</v>
@@ -943,12 +949,12 @@
         <v>9</v>
       </c>
       <c r="B14" s="6">
-        <f>'more data'!A42</f>
-        <v>68.77</v>
+        <f>'more data'!A27</f>
+        <v>50.6</v>
       </c>
       <c r="C14" s="6">
-        <f>'more data'!B42</f>
-        <v>56.86</v>
+        <f>'more data'!B27</f>
+        <v>39.700000000000003</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -970,12 +976,12 @@
         <v>10</v>
       </c>
       <c r="B15" s="6">
-        <f>'more data'!A30</f>
-        <v>57.71</v>
+        <f>'more data'!A5</f>
+        <v>51.58</v>
       </c>
       <c r="C15" s="6">
-        <f>'more data'!B30</f>
-        <v>57.44</v>
+        <f>'more data'!B5</f>
+        <v>53.44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -991,12 +997,12 @@
         <v>11</v>
       </c>
       <c r="B16" s="6">
-        <f>'more data'!A25</f>
-        <v>49.81</v>
+        <f>'more data'!A33</f>
+        <v>52.44</v>
       </c>
       <c r="C16" s="6">
-        <f>'more data'!B25</f>
-        <v>57</v>
+        <f>'more data'!B33</f>
+        <v>40.67</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1012,12 +1018,12 @@
         <v>12</v>
       </c>
       <c r="B17" s="6">
-        <f>'more data'!A3</f>
-        <v>59.11</v>
+        <f>'more data'!A9</f>
+        <v>52.53</v>
       </c>
       <c r="C17" s="6">
-        <f>'more data'!B3</f>
-        <v>55.38</v>
+        <f>'more data'!B9</f>
+        <v>66.16</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1033,12 +1039,12 @@
         <v>13</v>
       </c>
       <c r="B18" s="6">
-        <f>'more data'!A18</f>
-        <v>59.7</v>
+        <f>'more data'!A37</f>
+        <v>53.01</v>
       </c>
       <c r="C18" s="6">
-        <f>'more data'!B18</f>
-        <v>45.96</v>
+        <f>'more data'!B37</f>
+        <v>42.47</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1054,12 +1060,12 @@
         <v>14</v>
       </c>
       <c r="B19" s="6">
-        <f>'more data'!A23</f>
-        <v>61.17</v>
+        <f>'more data'!A12</f>
+        <v>53.52</v>
       </c>
       <c r="C19" s="6">
-        <f>'more data'!B23</f>
-        <v>59.16</v>
+        <f>'more data'!B12</f>
+        <v>44.61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1075,12 +1081,12 @@
         <v>15</v>
       </c>
       <c r="B20" s="6">
-        <f>'more data'!A28</f>
-        <v>54.46</v>
+        <f>'more data'!A10</f>
+        <v>53.85</v>
       </c>
       <c r="C20" s="6">
-        <f>'more data'!B28</f>
-        <v>55.55</v>
+        <f>'more data'!B10</f>
+        <v>55.15</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1096,12 +1102,12 @@
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <f>'more data'!A19</f>
-        <v>62.79</v>
+        <f>'more data'!A14</f>
+        <v>54.09</v>
       </c>
       <c r="C21" s="6">
-        <f>'more data'!B19</f>
-        <v>59.68</v>
+        <f>'more data'!B14</f>
+        <v>28.61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1117,12 +1123,12 @@
         <v>17</v>
       </c>
       <c r="B22" s="6">
-        <f>'more data'!A7</f>
-        <v>62.41</v>
+        <f>'more data'!A28</f>
+        <v>54.46</v>
       </c>
       <c r="C22" s="6">
-        <f>'more data'!B7</f>
-        <v>60.47</v>
+        <f>'more data'!B28</f>
+        <v>55.55</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1138,12 +1144,12 @@
         <v>18</v>
       </c>
       <c r="B23" s="6">
-        <f>'more data'!A10</f>
-        <v>53.85</v>
+        <f>'more data'!A2</f>
+        <v>54.6</v>
       </c>
       <c r="C23" s="6">
-        <f>'more data'!B10</f>
-        <v>55.15</v>
+        <f>'more data'!B2</f>
+        <v>30.49</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1159,12 +1165,12 @@
         <v>19</v>
       </c>
       <c r="B24" s="6">
-        <f>'more data'!A24</f>
-        <v>60.84</v>
+        <f>'more data'!A38</f>
+        <v>56.57</v>
       </c>
       <c r="C24" s="6">
-        <f>'more data'!B24</f>
-        <v>71.16</v>
+        <f>'more data'!B38</f>
+        <v>57.44</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1180,12 +1186,12 @@
         <v>20</v>
       </c>
       <c r="B25" s="6">
-        <f>'more data'!A5</f>
-        <v>51.58</v>
+        <f>'more data'!A30</f>
+        <v>57.71</v>
       </c>
       <c r="C25" s="6">
-        <f>'more data'!B5</f>
-        <v>53.44</v>
+        <f>'more data'!B30</f>
+        <v>57.44</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1201,12 +1207,12 @@
         <v>21</v>
       </c>
       <c r="B26" s="6">
-        <f>'more data'!A8</f>
-        <v>66.86</v>
+        <f>'more data'!A32</f>
+        <v>58.09</v>
       </c>
       <c r="C26" s="6">
-        <f>'more data'!B8</f>
-        <v>62.44</v>
+        <f>'more data'!B32</f>
+        <v>58.27</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1222,12 +1228,12 @@
         <v>22</v>
       </c>
       <c r="B27" s="6">
-        <f>'more data'!A31</f>
-        <v>68.14</v>
+        <f>'more data'!A41</f>
+        <v>58.7</v>
       </c>
       <c r="C27" s="6">
-        <f>'more data'!B31</f>
-        <v>63.26</v>
+        <f>'more data'!B41</f>
+        <v>62.31</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1243,12 +1249,12 @@
         <v>23</v>
       </c>
       <c r="B28" s="6">
-        <f>'more data'!A22</f>
-        <v>70.22</v>
+        <f>'more data'!A3</f>
+        <v>59.11</v>
       </c>
       <c r="C28" s="6">
-        <f>'more data'!B22</f>
-        <v>64.31</v>
+        <f>'more data'!B3</f>
+        <v>55.38</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1264,12 +1270,12 @@
         <v>24</v>
       </c>
       <c r="B29" s="6">
-        <f>'more data'!A12</f>
-        <v>53.52</v>
+        <f>'more data'!A18</f>
+        <v>59.7</v>
       </c>
       <c r="C29" s="6">
-        <f>'more data'!B12</f>
-        <v>44.61</v>
+        <f>'more data'!B18</f>
+        <v>45.96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1285,12 +1291,12 @@
         <v>25</v>
       </c>
       <c r="B30" s="6">
-        <f>'more data'!A13</f>
-        <v>67.98</v>
+        <f>'more data'!A24</f>
+        <v>60.84</v>
       </c>
       <c r="C30" s="6">
-        <f>'more data'!B13</f>
-        <v>66.62</v>
+        <f>'more data'!B24</f>
+        <v>71.16</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1306,12 +1312,12 @@
         <v>26</v>
       </c>
       <c r="B31" s="6">
-        <f>'more data'!A37</f>
-        <v>53.01</v>
+        <f>'more data'!A23</f>
+        <v>61.17</v>
       </c>
       <c r="C31" s="6">
-        <f>'more data'!B37</f>
-        <v>42.47</v>
+        <f>'more data'!B23</f>
+        <v>59.16</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1327,12 +1333,12 @@
         <v>27</v>
       </c>
       <c r="B32" s="6">
-        <f>'more data'!A33</f>
-        <v>52.44</v>
+        <f>'more data'!A16</f>
+        <v>61.77</v>
       </c>
       <c r="C32" s="6">
-        <f>'more data'!B33</f>
-        <v>40.67</v>
+        <f>'more data'!B16</f>
+        <v>54.06</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1348,12 +1354,12 @@
         <v>28</v>
       </c>
       <c r="B33" s="6">
-        <f>'more data'!A39</f>
-        <v>77.8</v>
+        <f>'more data'!A26</f>
+        <v>62.34</v>
       </c>
       <c r="C33" s="6">
-        <f>'more data'!B39</f>
-        <v>63.84</v>
+        <f>'more data'!B26</f>
+        <v>56.53</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1369,12 +1375,12 @@
         <v>29</v>
       </c>
       <c r="B34" s="6">
-        <f>'more data'!A2</f>
-        <v>54.6</v>
+        <f>'more data'!A7</f>
+        <v>62.41</v>
       </c>
       <c r="C34" s="6">
-        <f>'more data'!B2</f>
-        <v>30.49</v>
+        <f>'more data'!B7</f>
+        <v>60.47</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1390,12 +1396,12 @@
         <v>30</v>
       </c>
       <c r="B35" s="6">
-        <f>'more data'!A4</f>
-        <v>50.31</v>
+        <f>'more data'!A19</f>
+        <v>62.79</v>
       </c>
       <c r="C35" s="6">
-        <f>'more data'!B4</f>
-        <v>41.88</v>
+        <f>'more data'!B19</f>
+        <v>59.68</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1411,12 +1417,12 @@
         <v>31</v>
       </c>
       <c r="B36" s="6">
-        <f>'more data'!A21</f>
-        <v>66.430000000000007</v>
+        <f>'more data'!A11</f>
+        <v>66.14</v>
       </c>
       <c r="C36" s="6">
-        <f>'more data'!B21</f>
-        <v>79.39</v>
+        <f>'more data'!B11</f>
+        <v>52.7</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1432,12 +1438,12 @@
         <v>32</v>
       </c>
       <c r="B37" s="6">
-        <f>'more data'!A36</f>
-        <v>66.63</v>
+        <f>'more data'!A21</f>
+        <v>66.430000000000007</v>
       </c>
       <c r="C37" s="6">
-        <f>'more data'!B36</f>
-        <v>79.540000000000006</v>
+        <f>'more data'!B21</f>
+        <v>79.39</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1453,12 +1459,12 @@
         <v>33</v>
       </c>
       <c r="B38" s="6">
-        <f>'more data'!A27</f>
-        <v>50.6</v>
+        <f>'more data'!A36</f>
+        <v>66.63</v>
       </c>
       <c r="C38" s="6">
-        <f>'more data'!B27</f>
-        <v>39.700000000000003</v>
+        <f>'more data'!B36</f>
+        <v>79.540000000000006</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1474,12 +1480,12 @@
         <v>34</v>
       </c>
       <c r="B39" s="6">
-        <f>'more data'!A14</f>
-        <v>54.09</v>
+        <f>'more data'!A8</f>
+        <v>66.86</v>
       </c>
       <c r="C39" s="6">
-        <f>'more data'!B14</f>
-        <v>28.61</v>
+        <f>'more data'!B8</f>
+        <v>62.44</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -1495,12 +1501,12 @@
         <v>35</v>
       </c>
       <c r="B40" s="6">
-        <f>'more data'!A20</f>
-        <v>68.58</v>
+        <f>'more data'!A13</f>
+        <v>67.98</v>
       </c>
       <c r="C40" s="6">
-        <f>'more data'!B20</f>
-        <v>75.930000000000007</v>
+        <f>'more data'!B13</f>
+        <v>66.62</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -1516,12 +1522,12 @@
         <v>36</v>
       </c>
       <c r="B41" s="6">
-        <f>'more data'!A15</f>
-        <v>71.430000000000007</v>
+        <f>'more data'!A31</f>
+        <v>68.14</v>
       </c>
       <c r="C41" s="6">
-        <f>'more data'!B15</f>
-        <v>71.36</v>
+        <f>'more data'!B31</f>
+        <v>63.26</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1537,12 +1543,12 @@
         <v>37</v>
       </c>
       <c r="B42" s="6">
-        <f>'more data'!A44</f>
-        <v>75.39</v>
+        <f>'more data'!A20</f>
+        <v>68.58</v>
       </c>
       <c r="C42" s="6">
-        <f>'more data'!B44</f>
-        <v>68.87</v>
+        <f>'more data'!B20</f>
+        <v>75.930000000000007</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -1558,12 +1564,12 @@
         <v>38</v>
       </c>
       <c r="B43" s="6">
-        <f>'more data'!A35</f>
-        <v>47.18</v>
+        <f>'more data'!A42</f>
+        <v>68.77</v>
       </c>
       <c r="C43" s="6">
-        <f>'more data'!B35</f>
-        <v>42.3</v>
+        <f>'more data'!B42</f>
+        <v>56.86</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -1579,12 +1585,12 @@
         <v>39</v>
       </c>
       <c r="B44" s="6">
-        <f>'more data'!A17</f>
-        <v>39.799999999999997</v>
+        <f>'more data'!A22</f>
+        <v>70.22</v>
       </c>
       <c r="C44" s="6">
-        <f>'more data'!B17</f>
-        <v>47.16</v>
+        <f>'more data'!B22</f>
+        <v>64.31</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -1600,12 +1606,12 @@
         <v>40</v>
       </c>
       <c r="B45" s="6">
-        <f>'more data'!A46</f>
-        <v>46.49</v>
+        <f>'more data'!A15</f>
+        <v>71.430000000000007</v>
       </c>
       <c r="C45" s="6">
-        <f>'more data'!B46</f>
-        <v>41.83</v>
+        <f>'more data'!B15</f>
+        <v>71.36</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -1621,12 +1627,12 @@
         <v>41</v>
       </c>
       <c r="B46" s="6">
-        <f>'more data'!A40</f>
-        <v>48.76</v>
+        <f>'more data'!A45</f>
+        <v>72.209999999999994</v>
       </c>
       <c r="C46" s="6">
-        <f>'more data'!B40</f>
-        <v>37.18</v>
+        <f>'more data'!B45</f>
+        <v>87.15</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -1642,12 +1648,12 @@
         <v>42</v>
       </c>
       <c r="B47" s="6">
-        <f>'more data'!A34</f>
-        <v>78.59</v>
+        <f>'more data'!A44</f>
+        <v>75.39</v>
       </c>
       <c r="C47" s="6">
-        <f>'more data'!B34</f>
-        <v>76.52</v>
+        <f>'more data'!B44</f>
+        <v>68.87</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -1663,12 +1669,12 @@
         <v>43</v>
       </c>
       <c r="B48" s="6">
-        <f>'more data'!A45</f>
-        <v>72.209999999999994</v>
+        <f>'more data'!A39</f>
+        <v>77.8</v>
       </c>
       <c r="C48" s="6">
-        <f>'more data'!B45</f>
-        <v>87.15</v>
+        <f>'more data'!B39</f>
+        <v>63.84</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -1684,12 +1690,12 @@
         <v>44</v>
       </c>
       <c r="B49" s="6">
-        <f>'more data'!A29</f>
-        <v>40.9</v>
+        <f>'more data'!A34</f>
+        <v>78.59</v>
       </c>
       <c r="C49" s="6">
-        <f>'more data'!B29</f>
-        <v>35.33</v>
+        <f>'more data'!B34</f>
+        <v>76.52</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -1722,6 +1728,7 @@
       <c r="K50" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/files/week10_correlation.xlsx
+++ b/files/week10_correlation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ksuemailprod-my.sharepoint.com/personal/cblam_ksu_edu/Documents/COE Data Analyst/EDCI 913 Inquiry I/Spring 2026/Data simulation/Lecture data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="602" documentId="11_B35981270C9F3F5129B69650EE442AF0710427CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA5F0143-13E2-6C45-A687-9D14D0F60464}"/>
+  <xr:revisionPtr revIDLastSave="613" documentId="11_B35981270C9F3F5129B69650EE442AF0710427CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83C4BD9D-0675-1F4E-99A8-1CBF60A095A3}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="60160" windowHeight="23100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,12 +119,6 @@
     <t>Sum (X - Mean(X))*(Y - Mean(Y))</t>
   </si>
   <si>
-    <t>Sum of covariation products</t>
-  </si>
-  <si>
-    <t>Sum of products over (N-1)</t>
-  </si>
-  <si>
     <t>Standard Deviation SD(X)</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
   </si>
   <si>
     <t>Sample Size N</t>
-  </si>
-  <si>
-    <t>Count of values in the dataset</t>
   </si>
   <si>
     <t>Calculated using STDEV.S()</t>
@@ -209,6 +200,15 @@
   </si>
   <si>
     <t>The dollar sign ($) is used to lock cell references, such as $B$6:$B$50, so the formula does not change when it is copied from one cell to another.</t>
+  </si>
+  <si>
+    <t>Sum of deviation products</t>
+  </si>
+  <si>
+    <t>Number of observations in the dataset</t>
+  </si>
+  <si>
+    <t>Averaging deviation products by (N-1)</t>
   </si>
 </sst>
 </file>
@@ -667,15 +667,16 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="11.1640625" style="11" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
     <col min="4" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="26.1640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.1640625" style="16" customWidth="1"/>
     <col min="10" max="10" width="28.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -683,17 +684,17 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -724,10 +725,10 @@
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -743,28 +744,28 @@
         <v>47.16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -785,13 +786,13 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -815,10 +816,10 @@
         <v>16</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -860,13 +861,13 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -887,13 +888,13 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -938,7 +939,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>18</v>
@@ -965,10 +966,10 @@
         <v>19</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1728,6 +1729,7 @@
       <c r="K50" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A5:H50" xr:uid="{CF529A74-C61C-9447-8614-8BA1483613CF}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
